--- a/biology/Botanique/Phragmipedium/Phragmipedium.xlsx
+++ b/biology/Botanique/Phragmipedium/Phragmipedium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phragmipedium est un genre de plantes de la famille des Orchidaceae, sous-famille des Cypripedioideae. Ces orchidées terrestres sont originaires d'Amérique et sont très appréciées pour la forme de leurs fleurs.
 Le travail des horticulteurs spécialisés donne régulièrement de nouveaux hybrides horticoles plus adaptées aux conditions d'ambiance des appartements que les espèces botaniques naturelles.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phragmipedium andreettae P.J.Cribb &amp; Pupulin
 Phragmipedium besseae Dodson &amp; J.Kuhn
